--- a/VytrackTestUsers.xlsx
+++ b/VytrackTestUsers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vfomiuk/IdeaProjects/Fall2019Selenium/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vfomiuk/IdeaProjects/spring-2020-b18-automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25943BE8-09D8-114D-B59C-FE772C3C5EDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9798D8-1F9A-AE4E-A66A-DD0B9D291A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="29260" windowWidth="28800" windowHeight="16740" activeTab="5" xr2:uid="{506372D9-39D2-EA47-AA3D-ABD5428ED2AB}"/>
+    <workbookView xWindow="4160" yWindow="29260" windowWidth="28800" windowHeight="16740" activeTab="1" xr2:uid="{506372D9-39D2-EA47-AA3D-ABD5428ED2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="QA1-all" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="1480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3912" uniqueCount="1480">
   <si>
     <t>username</t>
   </si>
@@ -9074,8 +9074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25414FC-EB42-5647-8F63-8642E32C4CF3}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9121,7 +9121,7 @@
         <v>305</v>
       </c>
       <c r="F2" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -18246,8 +18246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C30F00C-C683-0548-B7C4-02FB1EBCAEF1}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
